--- a/biology/Zoologie/Graptemys_nigrinoda/Graptemys_nigrinoda.xlsx
+++ b/biology/Zoologie/Graptemys_nigrinoda/Graptemys_nigrinoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graptemys nigrinoda est une espèce de tortue de la famille des Emydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graptemys nigrinoda est une espèce de tortue de la famille des Emydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre dans le bassin de la rivière Alabama, de la Tombigbee et de la Black Warrior river dans les États d'Alabama et du Mississippi.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre dans le bassin de la rivière Alabama, de la Tombigbee et de la Black Warrior river dans les États d'Alabama et du Mississippi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (27 mai 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (27 mai 2011) :
 Graptemys nigrinoda nigrinoda Cagle, 1954
 Graptemys nigrinoda delticola Folkerts &amp; Mount, 1969</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cagle, 1954 : Two new species of the genus Graptemys. Tulane Studies in Zoology, vol. 1, no 11, p. 165-186 (texte intégral).
 Folkerts &amp; Mount, 1969 : A new subspecies of the turtle Graptemys nigrinoda Cagle. Copeia, vol. 1969, no 4, p. 677-682 (texte intégral).</t>
